--- a/data/pca/factorExposure/factorExposure_2015-09-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-09-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.02758961399798836</v>
+        <v>0.02363809446181964</v>
       </c>
       <c r="C2">
-        <v>-0.03499620649020383</v>
+        <v>-0.04529273944264528</v>
       </c>
       <c r="D2">
-        <v>0.1145203850926976</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1293405863398206</v>
+      </c>
+      <c r="E2">
+        <v>0.05110279208273404</v>
+      </c>
+      <c r="F2">
+        <v>-0.03202574465354282</v>
+      </c>
+      <c r="G2">
+        <v>0.05900587633591935</v>
+      </c>
+      <c r="H2">
+        <v>-0.083803026281823</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.008574363359635101</v>
+        <v>0.002792690232239611</v>
       </c>
       <c r="C3">
-        <v>-0.04723260826238451</v>
+        <v>-0.03758249332268106</v>
       </c>
       <c r="D3">
-        <v>0.06884140071123282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.04989886979842409</v>
+      </c>
+      <c r="E3">
+        <v>0.0667048398863459</v>
+      </c>
+      <c r="F3">
+        <v>-0.0592415594018746</v>
+      </c>
+      <c r="G3">
+        <v>0.1068977054134496</v>
+      </c>
+      <c r="H3">
+        <v>-0.0926080107622957</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05138262098412209</v>
+        <v>0.04594497796373683</v>
       </c>
       <c r="C4">
-        <v>-0.07025270449239829</v>
+        <v>-0.08508704267179137</v>
       </c>
       <c r="D4">
-        <v>0.1207664508069241</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1382347331899621</v>
+      </c>
+      <c r="E4">
+        <v>0.06185448236865836</v>
+      </c>
+      <c r="F4">
+        <v>-0.0541903118020771</v>
+      </c>
+      <c r="G4">
+        <v>-0.0577102602652436</v>
+      </c>
+      <c r="H4">
+        <v>-0.009085946269207208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03649029496402938</v>
+        <v>0.0356749048561068</v>
       </c>
       <c r="C6">
-        <v>-0.0269934100143036</v>
+        <v>-0.03680536233749183</v>
       </c>
       <c r="D6">
-        <v>0.1515476159081074</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1399231700095538</v>
+      </c>
+      <c r="E6">
+        <v>0.01513533377180542</v>
+      </c>
+      <c r="F6">
+        <v>-0.05043608236955876</v>
+      </c>
+      <c r="G6">
+        <v>-0.01233150041509941</v>
+      </c>
+      <c r="H6">
+        <v>-0.05266421828370876</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02112373234124278</v>
+        <v>0.0177391102586486</v>
       </c>
       <c r="C7">
-        <v>-0.03134796119204448</v>
+        <v>-0.03867157002335627</v>
       </c>
       <c r="D7">
-        <v>0.1068070145065484</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.09729686917103086</v>
+      </c>
+      <c r="E7">
+        <v>0.001910552413678208</v>
+      </c>
+      <c r="F7">
+        <v>-0.02896237729603885</v>
+      </c>
+      <c r="G7">
+        <v>0.006482574652121477</v>
+      </c>
+      <c r="H7">
+        <v>-0.0687260014883409</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01132734350689329</v>
+        <v>0.006744287942422096</v>
       </c>
       <c r="C8">
-        <v>-0.03546996692367504</v>
+        <v>-0.04017635466875569</v>
       </c>
       <c r="D8">
-        <v>0.06154645193000526</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.07419358365754389</v>
+      </c>
+      <c r="E8">
+        <v>0.02872477297821689</v>
+      </c>
+      <c r="F8">
+        <v>-0.07298560985750331</v>
+      </c>
+      <c r="G8">
+        <v>0.03828570895254454</v>
+      </c>
+      <c r="H8">
+        <v>-0.05129734554281418</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04189036054400733</v>
+        <v>0.03614809322629943</v>
       </c>
       <c r="C9">
-        <v>-0.06198306803964639</v>
+        <v>-0.07439954584040065</v>
       </c>
       <c r="D9">
-        <v>0.1092859026310363</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1166661513254745</v>
+      </c>
+      <c r="E9">
+        <v>0.04538778673046263</v>
+      </c>
+      <c r="F9">
+        <v>-0.03427145175322705</v>
+      </c>
+      <c r="G9">
+        <v>-0.03799146246806758</v>
+      </c>
+      <c r="H9">
+        <v>-0.009533205446606812</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1309130067354265</v>
+        <v>0.1730666854222254</v>
       </c>
       <c r="C10">
-        <v>0.1831138750586639</v>
+        <v>0.1698684807590784</v>
       </c>
       <c r="D10">
-        <v>-0.002440130565902629</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.004843809171245207</v>
+      </c>
+      <c r="E10">
+        <v>0.03298728603414684</v>
+      </c>
+      <c r="F10">
+        <v>-0.04084795244669859</v>
+      </c>
+      <c r="G10">
+        <v>-0.001689094520240693</v>
+      </c>
+      <c r="H10">
+        <v>0.04640548596431335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.0337517473724023</v>
+        <v>0.0285183450567563</v>
       </c>
       <c r="C11">
-        <v>-0.04434798531720058</v>
+        <v>-0.05216834623365017</v>
       </c>
       <c r="D11">
-        <v>0.05687143476663085</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05254127134824813</v>
+      </c>
+      <c r="E11">
+        <v>-0.01237731485065415</v>
+      </c>
+      <c r="F11">
+        <v>0.005207671841379996</v>
+      </c>
+      <c r="G11">
+        <v>0.005262178884695357</v>
+      </c>
+      <c r="H11">
+        <v>-0.03369223490400662</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.0374029064023572</v>
+        <v>0.0308187152039638</v>
       </c>
       <c r="C12">
-        <v>-0.04680028634723177</v>
+        <v>-0.05336177400924522</v>
       </c>
       <c r="D12">
-        <v>0.05806756677994155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05125615770456566</v>
+      </c>
+      <c r="E12">
+        <v>-0.0008838791128556717</v>
+      </c>
+      <c r="F12">
+        <v>0.009535915012985669</v>
+      </c>
+      <c r="G12">
+        <v>0.005417374636003625</v>
+      </c>
+      <c r="H12">
+        <v>-0.03706340872804877</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01194309492518</v>
+        <v>0.01508393818399996</v>
       </c>
       <c r="C13">
-        <v>-0.03742185636412376</v>
+        <v>-0.04677854409963958</v>
       </c>
       <c r="D13">
-        <v>0.1355392454461319</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1540496870742569</v>
+      </c>
+      <c r="E13">
+        <v>0.02205597159913962</v>
+      </c>
+      <c r="F13">
+        <v>-0.07345675154188896</v>
+      </c>
+      <c r="G13">
+        <v>0.0244000631671702</v>
+      </c>
+      <c r="H13">
+        <v>-0.05581446020071457</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.005718616659735019</v>
+        <v>0.007097722075595053</v>
       </c>
       <c r="C14">
-        <v>-0.02386670669333121</v>
+        <v>-0.02831788323490403</v>
       </c>
       <c r="D14">
-        <v>0.09747218722735522</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.0999354410100116</v>
+      </c>
+      <c r="E14">
+        <v>0.02494782154187961</v>
+      </c>
+      <c r="F14">
+        <v>-0.02677064177829784</v>
+      </c>
+      <c r="G14">
+        <v>0.003122151274195091</v>
+      </c>
+      <c r="H14">
+        <v>-0.0896418606084962</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.003063609894743895</v>
+        <v>0.001527256901802879</v>
       </c>
       <c r="C15">
-        <v>-0.005515454285240008</v>
+        <v>-0.0141449585093429</v>
       </c>
       <c r="D15">
-        <v>0.009719143646009783</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.03778829613744571</v>
+      </c>
+      <c r="E15">
+        <v>0.009951221606665377</v>
+      </c>
+      <c r="F15">
+        <v>-0.007376335505031513</v>
+      </c>
+      <c r="G15">
+        <v>0.002326109437506699</v>
+      </c>
+      <c r="H15">
+        <v>-0.02112574817655954</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.0312481498632902</v>
+        <v>0.0269090752828336</v>
       </c>
       <c r="C16">
-        <v>-0.04538572852680315</v>
+        <v>-0.05099176790928876</v>
       </c>
       <c r="D16">
-        <v>0.06438469334071814</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.05763441420409884</v>
+      </c>
+      <c r="E16">
+        <v>0.006719453703280554</v>
+      </c>
+      <c r="F16">
+        <v>-0.002663251804701014</v>
+      </c>
+      <c r="G16">
+        <v>0.0003401600866131643</v>
+      </c>
+      <c r="H16">
+        <v>-0.04849173241124698</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.01144904406882806</v>
+        <v>0.007065095089902726</v>
       </c>
       <c r="C19">
-        <v>-0.03537692276952284</v>
+        <v>-0.03077576502268765</v>
       </c>
       <c r="D19">
-        <v>0.143336080139312</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1107926551898744</v>
+      </c>
+      <c r="E19">
+        <v>0.0587169331926396</v>
+      </c>
+      <c r="F19">
+        <v>-0.0140628695481707</v>
+      </c>
+      <c r="G19">
+        <v>0.0121921073826643</v>
+      </c>
+      <c r="H19">
+        <v>-0.05288561663115112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01542576858783842</v>
+        <v>0.01564404205469955</v>
       </c>
       <c r="C20">
-        <v>-0.03546883544951807</v>
+        <v>-0.04045106699075404</v>
       </c>
       <c r="D20">
-        <v>0.09094933462521275</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.1027803827087611</v>
+      </c>
+      <c r="E20">
+        <v>0.045865690682119</v>
+      </c>
+      <c r="F20">
+        <v>-0.02797750321612449</v>
+      </c>
+      <c r="G20">
+        <v>-0.007852460462607021</v>
+      </c>
+      <c r="H20">
+        <v>-0.05131759018561895</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01026420328051435</v>
+        <v>0.008554138791006654</v>
       </c>
       <c r="C21">
-        <v>-0.03794045715207828</v>
+        <v>-0.04390887892970172</v>
       </c>
       <c r="D21">
-        <v>0.1437363139249563</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1433287312364322</v>
+      </c>
+      <c r="E21">
+        <v>0.08010068027960673</v>
+      </c>
+      <c r="F21">
+        <v>-0.06343934442583035</v>
+      </c>
+      <c r="G21">
+        <v>-0.01538254903535398</v>
+      </c>
+      <c r="H21">
+        <v>-0.07841790053027374</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.0005477214877675518</v>
+        <v>0.007803379636786954</v>
       </c>
       <c r="C22">
-        <v>-0.04868615618035533</v>
+        <v>-0.04974226186758287</v>
       </c>
       <c r="D22">
-        <v>0.1213838977519106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.175606858363543</v>
+      </c>
+      <c r="E22">
+        <v>0.01907869122795173</v>
+      </c>
+      <c r="F22">
+        <v>-0.1253335419537571</v>
+      </c>
+      <c r="G22">
+        <v>0.1109864620411586</v>
+      </c>
+      <c r="H22">
+        <v>0.01585697752387143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.0007106261020341244</v>
+        <v>0.00793582095875189</v>
       </c>
       <c r="C23">
-        <v>-0.04899860656988296</v>
+        <v>-0.05025164257202246</v>
       </c>
       <c r="D23">
-        <v>0.1208327830835945</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1747756951552182</v>
+      </c>
+      <c r="E23">
+        <v>0.01932942480339166</v>
+      </c>
+      <c r="F23">
+        <v>-0.1254824017600955</v>
+      </c>
+      <c r="G23">
+        <v>0.1102530063540968</v>
+      </c>
+      <c r="H23">
+        <v>0.01637661931426429</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03717706941780933</v>
+        <v>0.02953147589496197</v>
       </c>
       <c r="C24">
-        <v>-0.05811419776241388</v>
+        <v>-0.06407436147599659</v>
       </c>
       <c r="D24">
-        <v>0.06290982790710199</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.05748868778485827</v>
+      </c>
+      <c r="E24">
+        <v>0.004781587383868196</v>
+      </c>
+      <c r="F24">
+        <v>-0.0005034149533391117</v>
+      </c>
+      <c r="G24">
+        <v>-0.008969715269757017</v>
+      </c>
+      <c r="H24">
+        <v>-0.05806807333595765</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.0418155635253529</v>
+        <v>0.03422878562426542</v>
       </c>
       <c r="C25">
-        <v>-0.05315837936192676</v>
+        <v>-0.06045343396078105</v>
       </c>
       <c r="D25">
-        <v>0.0613681662236286</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05620959841796268</v>
+      </c>
+      <c r="E25">
+        <v>0.009338841447760315</v>
+      </c>
+      <c r="F25">
+        <v>-0.003270843345542378</v>
+      </c>
+      <c r="G25">
+        <v>0.004886354141438413</v>
+      </c>
+      <c r="H25">
+        <v>-0.02869200556483475</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01346865761210598</v>
+        <v>0.01398937044347258</v>
       </c>
       <c r="C26">
-        <v>-0.01420483819359776</v>
+        <v>-0.02225982320153514</v>
       </c>
       <c r="D26">
-        <v>0.06410504818562862</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.06891316183144401</v>
+      </c>
+      <c r="E26">
+        <v>0.02069679006356247</v>
+      </c>
+      <c r="F26">
+        <v>-0.03135365697559572</v>
+      </c>
+      <c r="G26">
+        <v>0.001631549934115975</v>
+      </c>
+      <c r="H26">
+        <v>-0.0553063075998788</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1966955024982248</v>
+        <v>0.2513199175822861</v>
       </c>
       <c r="C28">
-        <v>0.2486865856018198</v>
+        <v>0.2246388936353943</v>
       </c>
       <c r="D28">
-        <v>-0.0169308420482814</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01218104090823007</v>
+      </c>
+      <c r="E28">
+        <v>0.05670085774186402</v>
+      </c>
+      <c r="F28">
+        <v>-0.02855873139639406</v>
+      </c>
+      <c r="G28">
+        <v>-0.02665491549380484</v>
+      </c>
+      <c r="H28">
+        <v>0.06258183082261119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.003457099209746734</v>
+        <v>0.005088254286020616</v>
       </c>
       <c r="C29">
-        <v>-0.02250747917696956</v>
+        <v>-0.02732963402113843</v>
       </c>
       <c r="D29">
-        <v>0.08801715447138923</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.09681007583936758</v>
+      </c>
+      <c r="E29">
+        <v>0.01280003514331363</v>
+      </c>
+      <c r="F29">
+        <v>-0.04492121016377629</v>
+      </c>
+      <c r="G29">
+        <v>-0.004352929149383745</v>
+      </c>
+      <c r="H29">
+        <v>-0.08642367955755217</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.03405149928848922</v>
+        <v>0.03560719892198634</v>
       </c>
       <c r="C30">
-        <v>-0.06461399310892643</v>
+        <v>-0.07606264967690489</v>
       </c>
       <c r="D30">
-        <v>0.1561952141300908</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1646245719419117</v>
+      </c>
+      <c r="E30">
+        <v>0.01767842776195042</v>
+      </c>
+      <c r="F30">
+        <v>-0.03993995118591689</v>
+      </c>
+      <c r="G30">
+        <v>-0.01921473210233039</v>
+      </c>
+      <c r="H30">
+        <v>-0.06438536497619866</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05999637142888915</v>
+        <v>0.04539460509309012</v>
       </c>
       <c r="C31">
-        <v>-0.07544167859137804</v>
+        <v>-0.08453852412374456</v>
       </c>
       <c r="D31">
-        <v>0.05869475930997985</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.0456601397259291</v>
+      </c>
+      <c r="E31">
+        <v>0.01890885824954317</v>
+      </c>
+      <c r="F31">
+        <v>-0.03977313135656533</v>
+      </c>
+      <c r="G31">
+        <v>0.008599301756315922</v>
+      </c>
+      <c r="H31">
+        <v>-0.02334435191740357</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02275339746209679</v>
+        <v>0.02232137817264925</v>
       </c>
       <c r="C32">
-        <v>-0.02261382229238768</v>
+        <v>-0.02837678831053675</v>
       </c>
       <c r="D32">
-        <v>0.0912578915305297</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.1155955787186541</v>
+      </c>
+      <c r="E32">
+        <v>0.05231063815250086</v>
+      </c>
+      <c r="F32">
+        <v>-0.06281017688724655</v>
+      </c>
+      <c r="G32">
+        <v>0.000171129487947279</v>
+      </c>
+      <c r="H32">
+        <v>-0.03221181160516815</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02351590596730816</v>
+        <v>0.02335460376564137</v>
       </c>
       <c r="C33">
-        <v>-0.04453853599988793</v>
+        <v>-0.05258528491926839</v>
       </c>
       <c r="D33">
-        <v>0.1389346501390717</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1334704165556225</v>
+      </c>
+      <c r="E33">
+        <v>0.0384212468266142</v>
+      </c>
+      <c r="F33">
+        <v>-0.03550472984024701</v>
+      </c>
+      <c r="G33">
+        <v>-0.005886448581857532</v>
+      </c>
+      <c r="H33">
+        <v>-0.05852533319602122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03500437423124884</v>
+        <v>0.0265457214118499</v>
       </c>
       <c r="C34">
-        <v>-0.06518460790720468</v>
+        <v>-0.06668557494200771</v>
       </c>
       <c r="D34">
-        <v>0.06221465192364246</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.04795977034091096</v>
+      </c>
+      <c r="E34">
+        <v>-0.01089090779669497</v>
+      </c>
+      <c r="F34">
+        <v>0.0161016033945483</v>
+      </c>
+      <c r="G34">
+        <v>0.01270974383812214</v>
+      </c>
+      <c r="H34">
+        <v>-0.05240050608089085</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.001082578316437268</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.001876820718278699</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.009010240460523749</v>
+      </c>
+      <c r="E35">
+        <v>3.530839154034514e-05</v>
+      </c>
+      <c r="F35">
+        <v>-0.001400189707745204</v>
+      </c>
+      <c r="G35">
+        <v>8.667908196025681e-05</v>
+      </c>
+      <c r="H35">
+        <v>-0.003844123625505896</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01952202977417781</v>
+        <v>0.01929966650597159</v>
       </c>
       <c r="C36">
-        <v>-0.009151990862072546</v>
+        <v>-0.01927019768751204</v>
       </c>
       <c r="D36">
-        <v>0.08764634122873445</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.08251903691867193</v>
+      </c>
+      <c r="E36">
+        <v>0.02637660410028866</v>
+      </c>
+      <c r="F36">
+        <v>-0.02294821097081263</v>
+      </c>
+      <c r="G36">
+        <v>-0.01725730851298106</v>
+      </c>
+      <c r="H36">
+        <v>-0.04368624792185329</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01763022776872232</v>
+        <v>0.02172804390084934</v>
       </c>
       <c r="C38">
-        <v>-0.01590192262092332</v>
+        <v>-0.02042308144483671</v>
       </c>
       <c r="D38">
-        <v>0.07730806525698505</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.07683534881071126</v>
+      </c>
+      <c r="E38">
+        <v>0.03762325808971519</v>
+      </c>
+      <c r="F38">
+        <v>0.01019737619772697</v>
+      </c>
+      <c r="G38">
+        <v>0.01269796035311896</v>
+      </c>
+      <c r="H38">
+        <v>-0.04215252188018755</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03839813112052533</v>
+        <v>0.03140669914296478</v>
       </c>
       <c r="C39">
-        <v>-0.06199113071344207</v>
+        <v>-0.07572851745995481</v>
       </c>
       <c r="D39">
-        <v>0.09912859647817682</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1036466328827008</v>
+      </c>
+      <c r="E39">
+        <v>0.004923135143140569</v>
+      </c>
+      <c r="F39">
+        <v>0.008645983117585078</v>
+      </c>
+      <c r="G39">
+        <v>-0.02035860112463623</v>
+      </c>
+      <c r="H39">
+        <v>-0.09199179231426752</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01661899179961122</v>
+        <v>0.01369585987408434</v>
       </c>
       <c r="C40">
-        <v>-0.0427105147888535</v>
+        <v>-0.04012721766158006</v>
       </c>
       <c r="D40">
-        <v>0.08586122599927508</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.08938409183374836</v>
+      </c>
+      <c r="E40">
+        <v>0.04113751204270669</v>
+      </c>
+      <c r="F40">
+        <v>-0.1078675549523973</v>
+      </c>
+      <c r="G40">
+        <v>0.1373879628534124</v>
+      </c>
+      <c r="H40">
+        <v>-0.1481856184581803</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.02996644868660754</v>
+        <v>0.02720274737253975</v>
       </c>
       <c r="C41">
-        <v>-0.006442637789463487</v>
+        <v>-0.01495871341007234</v>
       </c>
       <c r="D41">
-        <v>0.06314427576394964</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.04620931799100631</v>
+      </c>
+      <c r="E41">
+        <v>0.05024521351726533</v>
+      </c>
+      <c r="F41">
+        <v>-0.0152531520059223</v>
+      </c>
+      <c r="G41">
+        <v>0.01905700568304888</v>
+      </c>
+      <c r="H41">
+        <v>-0.04756213110600793</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.02592781401449409</v>
+        <v>0.02181323469677622</v>
       </c>
       <c r="C43">
-        <v>-0.0166081272714041</v>
+        <v>-0.02251652265591461</v>
       </c>
       <c r="D43">
-        <v>0.1003549853965985</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.07693619479356185</v>
+      </c>
+      <c r="E43">
+        <v>0.03016374461857712</v>
+      </c>
+      <c r="F43">
+        <v>-0.009330659151157075</v>
+      </c>
+      <c r="G43">
+        <v>0.01107068608665228</v>
+      </c>
+      <c r="H43">
+        <v>-0.05756482363757676</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01537645517753112</v>
+        <v>0.01769429393356623</v>
       </c>
       <c r="C44">
-        <v>-0.04199903274220742</v>
+        <v>-0.04435933620399311</v>
       </c>
       <c r="D44">
-        <v>0.09017374136135985</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.1064521581005916</v>
+      </c>
+      <c r="E44">
+        <v>0.03985838380239722</v>
+      </c>
+      <c r="F44">
+        <v>-0.02656048219118679</v>
+      </c>
+      <c r="G44">
+        <v>-0.006863500161397191</v>
+      </c>
+      <c r="H44">
+        <v>-0.04335424926062659</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01519053676870402</v>
+        <v>0.01156792712228967</v>
       </c>
       <c r="C46">
-        <v>-0.02677273428295054</v>
+        <v>-0.0355541315037949</v>
       </c>
       <c r="D46">
-        <v>0.0911628446230328</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.09132965316107737</v>
+      </c>
+      <c r="E46">
+        <v>0.02716174865476675</v>
+      </c>
+      <c r="F46">
+        <v>-0.02389972359061931</v>
+      </c>
+      <c r="G46">
+        <v>-0.01413663443456512</v>
+      </c>
+      <c r="H46">
+        <v>-0.08731850561391946</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09053971051375109</v>
+        <v>0.07270280936545108</v>
       </c>
       <c r="C47">
-        <v>-0.09000241819682643</v>
+        <v>-0.103486295153212</v>
       </c>
       <c r="D47">
-        <v>0.02617614747388685</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02270075558718185</v>
+      </c>
+      <c r="E47">
+        <v>0.02777826952647058</v>
+      </c>
+      <c r="F47">
+        <v>-0.02604786971952312</v>
+      </c>
+      <c r="G47">
+        <v>0.01716854107547339</v>
+      </c>
+      <c r="H47">
+        <v>0.0430619490434365</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01242582373780238</v>
+        <v>0.01414556196412015</v>
       </c>
       <c r="C48">
-        <v>-0.02088298890476316</v>
+        <v>-0.02563884258064193</v>
       </c>
       <c r="D48">
-        <v>0.07355867911206403</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.07742274224631905</v>
+      </c>
+      <c r="E48">
+        <v>0.05604186385537197</v>
+      </c>
+      <c r="F48">
+        <v>-0.03071490276751709</v>
+      </c>
+      <c r="G48">
+        <v>-0.01591410595451553</v>
+      </c>
+      <c r="H48">
+        <v>-0.06113318916992855</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.05231587824136427</v>
+        <v>0.04022680101236487</v>
       </c>
       <c r="C50">
-        <v>-0.06268788131657782</v>
+        <v>-0.07314153384023542</v>
       </c>
       <c r="D50">
-        <v>0.05658157348387426</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05081910902129103</v>
+      </c>
+      <c r="E50">
+        <v>0.02630089945952547</v>
+      </c>
+      <c r="F50">
+        <v>-0.04155668478107802</v>
+      </c>
+      <c r="G50">
+        <v>0.03372745451977418</v>
+      </c>
+      <c r="H50">
+        <v>-0.02111375866960302</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01478673787671263</v>
+        <v>0.01260944235679506</v>
       </c>
       <c r="C51">
-        <v>-0.01667720003688808</v>
+        <v>-0.02415878697206103</v>
       </c>
       <c r="D51">
-        <v>0.09071858624276818</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.09445990018762811</v>
+      </c>
+      <c r="E51">
+        <v>-0.001743313829144273</v>
+      </c>
+      <c r="F51">
+        <v>-0.009966591949500727</v>
+      </c>
+      <c r="G51">
+        <v>-0.02013678509721203</v>
+      </c>
+      <c r="H51">
+        <v>-0.07052151590538068</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1037869424711512</v>
+        <v>0.09082525509097061</v>
       </c>
       <c r="C53">
-        <v>-0.1066636215662637</v>
+        <v>-0.1216690946375319</v>
       </c>
       <c r="D53">
-        <v>-0.024166937066141</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.01806236659342144</v>
+      </c>
+      <c r="E53">
+        <v>0.07378173798660168</v>
+      </c>
+      <c r="F53">
+        <v>-0.08375691580022628</v>
+      </c>
+      <c r="G53">
+        <v>-0.001858815751326434</v>
+      </c>
+      <c r="H53">
+        <v>0.01420855045364553</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02140445779771896</v>
+        <v>0.02045737505206115</v>
       </c>
       <c r="C54">
-        <v>-0.03010240562920228</v>
+        <v>-0.03770646065911427</v>
       </c>
       <c r="D54">
-        <v>0.1029989344731367</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.09421733662957103</v>
+      </c>
+      <c r="E54">
+        <v>0.03725654542133205</v>
+      </c>
+      <c r="F54">
+        <v>-0.01954905844696144</v>
+      </c>
+      <c r="G54">
+        <v>0.02364785689811588</v>
+      </c>
+      <c r="H54">
+        <v>-0.07647973667933265</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09552552320025477</v>
+        <v>0.08128855085256009</v>
       </c>
       <c r="C55">
-        <v>-0.08200330726186193</v>
+        <v>-0.0980100624944132</v>
       </c>
       <c r="D55">
-        <v>-0.03368436766326101</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.02843177833355157</v>
+      </c>
+      <c r="E55">
+        <v>0.02734030964704637</v>
+      </c>
+      <c r="F55">
+        <v>-0.06659891038845361</v>
+      </c>
+      <c r="G55">
+        <v>0.0244902664116886</v>
+      </c>
+      <c r="H55">
+        <v>0.007838017727500802</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1350717971163041</v>
+        <v>0.114972769878662</v>
       </c>
       <c r="C56">
-        <v>-0.1158349169311617</v>
+        <v>-0.1448297287753637</v>
       </c>
       <c r="D56">
-        <v>-0.0306054327836849</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.03012857930552527</v>
+      </c>
+      <c r="E56">
+        <v>0.04703504642906869</v>
+      </c>
+      <c r="F56">
+        <v>-0.05761573637162778</v>
+      </c>
+      <c r="G56">
+        <v>0.03701147930305347</v>
+      </c>
+      <c r="H56">
+        <v>0.03179093053710129</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.008466477153422849</v>
+        <v>0.01606472020730374</v>
       </c>
       <c r="C58">
-        <v>-0.03839553320430546</v>
+        <v>-0.05541560208952376</v>
       </c>
       <c r="D58">
-        <v>0.2441582092263772</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.2918375738910033</v>
+      </c>
+      <c r="E58">
+        <v>0.09189789823152103</v>
+      </c>
+      <c r="F58">
+        <v>-0.117387491012357</v>
+      </c>
+      <c r="G58">
+        <v>0.06956897975236746</v>
+      </c>
+      <c r="H58">
+        <v>0.04185123373790779</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1560571219246939</v>
+        <v>0.1955677514941392</v>
       </c>
       <c r="C59">
-        <v>0.1668289016282962</v>
+        <v>0.1426709466976598</v>
       </c>
       <c r="D59">
-        <v>0.04987512181034597</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.06386885332692765</v>
+      </c>
+      <c r="E59">
+        <v>0.04606851256876395</v>
+      </c>
+      <c r="F59">
+        <v>0.01811695329049705</v>
+      </c>
+      <c r="G59">
+        <v>-0.009782896499575486</v>
+      </c>
+      <c r="H59">
+        <v>0.02301173866714493</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2326990413579692</v>
+        <v>0.2120223357438665</v>
       </c>
       <c r="C60">
-        <v>-0.08450284091596322</v>
+        <v>-0.1260479788696945</v>
       </c>
       <c r="D60">
-        <v>0.1823278797143724</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1272327431965761</v>
+      </c>
+      <c r="E60">
+        <v>-0.3227963294921768</v>
+      </c>
+      <c r="F60">
+        <v>0.1079813240201617</v>
+      </c>
+      <c r="G60">
+        <v>-0.02687161406235101</v>
+      </c>
+      <c r="H60">
+        <v>0.1844736033923911</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04400481004596458</v>
+        <v>0.03594127075764648</v>
       </c>
       <c r="C61">
-        <v>-0.0575429209879349</v>
+        <v>-0.06865013376385622</v>
       </c>
       <c r="D61">
-        <v>0.108871419403185</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.09399090685354808</v>
+      </c>
+      <c r="E61">
+        <v>-0.00040272817327754</v>
+      </c>
+      <c r="F61">
+        <v>0.006472920791904326</v>
+      </c>
+      <c r="G61">
+        <v>-0.01067253062823802</v>
+      </c>
+      <c r="H61">
+        <v>-0.05064903775157285</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01533709768338803</v>
+        <v>0.01399810528588696</v>
       </c>
       <c r="C63">
-        <v>-0.02523305411839041</v>
+        <v>-0.03541416536289821</v>
       </c>
       <c r="D63">
-        <v>0.08163173653228321</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.07594345435309474</v>
+      </c>
+      <c r="E63">
+        <v>0.008717340435865235</v>
+      </c>
+      <c r="F63">
+        <v>-0.02379885853160491</v>
+      </c>
+      <c r="G63">
+        <v>-0.008968676279451413</v>
+      </c>
+      <c r="H63">
+        <v>-0.0499114537320513</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05684818093910625</v>
+        <v>0.04481292881608293</v>
       </c>
       <c r="C64">
-        <v>-0.07809192607533282</v>
+        <v>-0.08455646656825769</v>
       </c>
       <c r="D64">
-        <v>0.04683497028666531</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.05009071617928863</v>
+      </c>
+      <c r="E64">
+        <v>0.01877747524312851</v>
+      </c>
+      <c r="F64">
+        <v>-0.002605595458335572</v>
+      </c>
+      <c r="G64">
+        <v>-0.08722364543123923</v>
+      </c>
+      <c r="H64">
+        <v>-0.05121049988047362</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.03739972617626437</v>
+        <v>0.03461859476542599</v>
       </c>
       <c r="C65">
-        <v>-0.02323296077705418</v>
+        <v>-0.03575204894145457</v>
       </c>
       <c r="D65">
-        <v>0.1201206715994576</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1120634007879195</v>
+      </c>
+      <c r="E65">
+        <v>-0.003847257967935016</v>
+      </c>
+      <c r="F65">
+        <v>-0.02604859632340435</v>
+      </c>
+      <c r="G65">
+        <v>0.00729508462679</v>
+      </c>
+      <c r="H65">
+        <v>-0.02260126037069104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.0419940886089416</v>
+        <v>0.03534209005389956</v>
       </c>
       <c r="C66">
-        <v>-0.06950694071556514</v>
+        <v>-0.08630594794220674</v>
       </c>
       <c r="D66">
-        <v>0.1144394346156816</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1278493025050876</v>
+      </c>
+      <c r="E66">
+        <v>0.009523575727979865</v>
+      </c>
+      <c r="F66">
+        <v>0.001437023794488572</v>
+      </c>
+      <c r="G66">
+        <v>-0.0003253403636668726</v>
+      </c>
+      <c r="H66">
+        <v>-0.05682000227131696</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.03870156959312782</v>
+        <v>0.03751071596071688</v>
       </c>
       <c r="C67">
-        <v>-0.02211385656203095</v>
+        <v>-0.0289306363138711</v>
       </c>
       <c r="D67">
-        <v>0.04214369212173424</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03312078678873506</v>
+      </c>
+      <c r="E67">
+        <v>0.01140277115571854</v>
+      </c>
+      <c r="F67">
+        <v>0.02479844300096854</v>
+      </c>
+      <c r="G67">
+        <v>0.0136785467894398</v>
+      </c>
+      <c r="H67">
+        <v>-0.04420561628426875</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1908121927095436</v>
+        <v>0.227601244255407</v>
       </c>
       <c r="C68">
-        <v>0.2008590705684402</v>
+        <v>0.1674933404252723</v>
       </c>
       <c r="D68">
-        <v>0.01947098183570167</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.02529532979917508</v>
+      </c>
+      <c r="E68">
+        <v>0.015672215023334</v>
+      </c>
+      <c r="F68">
+        <v>-0.03839628757971921</v>
+      </c>
+      <c r="G68">
+        <v>0.02466057772173507</v>
+      </c>
+      <c r="H68">
+        <v>0.002424105058265825</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.0844089924406356</v>
+        <v>0.0655729593972636</v>
       </c>
       <c r="C69">
-        <v>-0.1054666211419019</v>
+        <v>-0.1105102813458209</v>
       </c>
       <c r="D69">
-        <v>0.05616923515484019</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.03712267910919959</v>
+      </c>
+      <c r="E69">
+        <v>0.01571690144418301</v>
+      </c>
+      <c r="F69">
+        <v>-0.01257673301878711</v>
+      </c>
+      <c r="G69">
+        <v>0.01561340122612053</v>
+      </c>
+      <c r="H69">
+        <v>0.01008038813242661</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1761731445848125</v>
+        <v>0.213971834358865</v>
       </c>
       <c r="C71">
-        <v>0.205389128149762</v>
+        <v>0.1750558635917608</v>
       </c>
       <c r="D71">
-        <v>0.01790033144138882</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.02743643944472931</v>
+      </c>
+      <c r="E71">
+        <v>0.03670677873044877</v>
+      </c>
+      <c r="F71">
+        <v>-0.06196313682638239</v>
+      </c>
+      <c r="G71">
+        <v>0.0449449473026375</v>
+      </c>
+      <c r="H71">
+        <v>0.009415245352555498</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1100864275107542</v>
+        <v>0.09643296728253475</v>
       </c>
       <c r="C72">
-        <v>-0.06510043004094315</v>
+        <v>-0.09108618660531372</v>
       </c>
       <c r="D72">
-        <v>0.08325521545967271</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.08245794418289118</v>
+      </c>
+      <c r="E72">
+        <v>-0.06348911888127542</v>
+      </c>
+      <c r="F72">
+        <v>-0.03494593399755283</v>
+      </c>
+      <c r="G72">
+        <v>-0.01229813319490504</v>
+      </c>
+      <c r="H72">
+        <v>-0.02491250766001343</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2263695542750188</v>
+        <v>0.2030933736028367</v>
       </c>
       <c r="C73">
-        <v>-0.04953107796053984</v>
+        <v>-0.1068528507506162</v>
       </c>
       <c r="D73">
-        <v>0.3203683855644521</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.194886682176097</v>
+      </c>
+      <c r="E73">
+        <v>-0.5808940150131023</v>
+      </c>
+      <c r="F73">
+        <v>0.188279852830924</v>
+      </c>
+      <c r="G73">
+        <v>-0.08100371019969413</v>
+      </c>
+      <c r="H73">
+        <v>0.2260039611762425</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1095582198471054</v>
+        <v>0.09127919268671549</v>
       </c>
       <c r="C74">
-        <v>-0.08694920131096964</v>
+        <v>-0.1067095027689809</v>
       </c>
       <c r="D74">
-        <v>-0.03771190473765022</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03882558318610212</v>
+      </c>
+      <c r="E74">
+        <v>0.0252098141867402</v>
+      </c>
+      <c r="F74">
+        <v>-0.07509380174425605</v>
+      </c>
+      <c r="G74">
+        <v>-0.008393048929690269</v>
+      </c>
+      <c r="H74">
+        <v>0.04292594290956307</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.251804985868539</v>
+        <v>0.2122726994944206</v>
       </c>
       <c r="C75">
-        <v>-0.1615599525829611</v>
+        <v>-0.2000952197171924</v>
       </c>
       <c r="D75">
-        <v>-0.1356287339455472</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1510101635748172</v>
+      </c>
+      <c r="E75">
+        <v>0.07722788703478611</v>
+      </c>
+      <c r="F75">
+        <v>-0.02186446528975391</v>
+      </c>
+      <c r="G75">
+        <v>0.06788922976558701</v>
+      </c>
+      <c r="H75">
+        <v>0.05607578817501435</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1452094961846216</v>
+        <v>0.1203117203833185</v>
       </c>
       <c r="C76">
-        <v>-0.1133491467468614</v>
+        <v>-0.1368008616173775</v>
       </c>
       <c r="D76">
-        <v>-0.04080797933018857</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.04300081874799521</v>
+      </c>
+      <c r="E76">
+        <v>0.07761191600838858</v>
+      </c>
+      <c r="F76">
+        <v>-0.0409489360823017</v>
+      </c>
+      <c r="G76">
+        <v>0.01721730671928636</v>
+      </c>
+      <c r="H76">
+        <v>-0.03162583182785524</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.0419835523383502</v>
+        <v>0.04660869735178361</v>
       </c>
       <c r="C77">
-        <v>-0.07140570681322231</v>
+        <v>-0.08300827707927667</v>
       </c>
       <c r="D77">
-        <v>0.02841576271118538</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1294638132833015</v>
+      </c>
+      <c r="E77">
+        <v>0.4777564128153476</v>
+      </c>
+      <c r="F77">
+        <v>0.3511737459920489</v>
+      </c>
+      <c r="G77">
+        <v>0.3017920055903214</v>
+      </c>
+      <c r="H77">
+        <v>0.6334763371192164</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.04327600898076628</v>
+        <v>0.04252074952758834</v>
       </c>
       <c r="C78">
-        <v>-0.06346864010208525</v>
+        <v>-0.07354044877604213</v>
       </c>
       <c r="D78">
-        <v>0.1345594065041366</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1386008038130268</v>
+      </c>
+      <c r="E78">
+        <v>0.01410968048611161</v>
+      </c>
+      <c r="F78">
+        <v>-0.04232450806182798</v>
+      </c>
+      <c r="G78">
+        <v>-0.004170841976853498</v>
+      </c>
+      <c r="H78">
+        <v>0.01795848183077217</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.05339008801724202</v>
+        <v>0.04991625244351223</v>
       </c>
       <c r="C79">
-        <v>-0.1034239689143383</v>
+        <v>-0.1137590985876413</v>
       </c>
       <c r="D79">
-        <v>-0.1525602961016503</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.08285066020395811</v>
+      </c>
+      <c r="E79">
+        <v>0.1755991689685877</v>
+      </c>
+      <c r="F79">
+        <v>-0.4153846375296132</v>
+      </c>
+      <c r="G79">
+        <v>-0.7190880330059604</v>
+      </c>
+      <c r="H79">
+        <v>0.3318192519614324</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.02002482452568604</v>
+        <v>0.01765316166399888</v>
       </c>
       <c r="C80">
-        <v>-0.04869394773951213</v>
+        <v>-0.04967997788916544</v>
       </c>
       <c r="D80">
-        <v>0.01943844097295741</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01780638336331775</v>
+      </c>
+      <c r="E80">
+        <v>0.01216353289982785</v>
+      </c>
+      <c r="F80">
+        <v>-0.01616890468014751</v>
+      </c>
+      <c r="G80">
+        <v>0.007352477809619454</v>
+      </c>
+      <c r="H80">
+        <v>-0.07616349267995798</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1323135148192104</v>
+        <v>0.1053284448750619</v>
       </c>
       <c r="C81">
-        <v>-0.1179498077891259</v>
+        <v>-0.1369212903147355</v>
       </c>
       <c r="D81">
-        <v>-0.1062153858267791</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1037326803102597</v>
+      </c>
+      <c r="E81">
+        <v>0.09193166726085472</v>
+      </c>
+      <c r="F81">
+        <v>-0.06577921077453998</v>
+      </c>
+      <c r="G81">
+        <v>0.02166475264301311</v>
+      </c>
+      <c r="H81">
+        <v>-0.01206952544914669</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2678880775961917</v>
+        <v>0.2075999995844234</v>
       </c>
       <c r="C82">
-        <v>-0.2442466312821044</v>
+        <v>-0.2629287808341308</v>
       </c>
       <c r="D82">
-        <v>-0.2202641365373263</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2279852445018321</v>
+      </c>
+      <c r="E82">
+        <v>-0.008251662949939224</v>
+      </c>
+      <c r="F82">
+        <v>0.03500360259588818</v>
+      </c>
+      <c r="G82">
+        <v>0.08505141748251936</v>
+      </c>
+      <c r="H82">
+        <v>-0.0006714850011626815</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02024114927794485</v>
+        <v>0.01231003907153273</v>
       </c>
       <c r="C83">
-        <v>-0.05870636787992747</v>
+        <v>-0.05580583321225964</v>
       </c>
       <c r="D83">
-        <v>0.04921478017297978</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05423176949090008</v>
+      </c>
+      <c r="E83">
+        <v>0.05962661754097096</v>
+      </c>
+      <c r="F83">
+        <v>0.06839185159779283</v>
+      </c>
+      <c r="G83">
+        <v>-6.854632677287625e-05</v>
+      </c>
+      <c r="H83">
+        <v>0.03322924012394308</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0009596474315439674</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.005945385023063444</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.01773674647932113</v>
+      </c>
+      <c r="E84">
+        <v>0.01472608096427506</v>
+      </c>
+      <c r="F84">
+        <v>-0.02049475720513718</v>
+      </c>
+      <c r="G84">
+        <v>0.004765283719879052</v>
+      </c>
+      <c r="H84">
+        <v>-0.02207189119675025</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1686155157231735</v>
+        <v>0.1389205758165663</v>
       </c>
       <c r="C85">
-        <v>-0.127051932327145</v>
+        <v>-0.1586827949238257</v>
       </c>
       <c r="D85">
-        <v>-0.06047049889227391</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.08487027030721837</v>
+      </c>
+      <c r="E85">
+        <v>0.007014303676089506</v>
+      </c>
+      <c r="F85">
+        <v>-0.05759176224560387</v>
+      </c>
+      <c r="G85">
+        <v>-0.05377658439132729</v>
+      </c>
+      <c r="H85">
+        <v>0.009739801730020212</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.02446027761483981</v>
+        <v>0.02179859385516136</v>
       </c>
       <c r="C86">
-        <v>-0.03955706919072963</v>
+        <v>-0.03977926061755409</v>
       </c>
       <c r="D86">
-        <v>0.1217695780617192</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1214708249752887</v>
+      </c>
+      <c r="E86">
+        <v>0.03026258293739492</v>
+      </c>
+      <c r="F86">
+        <v>0.009188412283987037</v>
+      </c>
+      <c r="G86">
+        <v>0.05255371084224939</v>
+      </c>
+      <c r="H86">
+        <v>0.04420883577731864</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02719774913969105</v>
+        <v>0.0328280882052981</v>
       </c>
       <c r="C87">
-        <v>-0.02298546798309845</v>
+        <v>-0.03517986550686518</v>
       </c>
       <c r="D87">
-        <v>0.1064881188311886</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1326339064048779</v>
+      </c>
+      <c r="E87">
+        <v>0.06314671366319312</v>
+      </c>
+      <c r="F87">
+        <v>-0.0326633302166833</v>
+      </c>
+      <c r="G87">
+        <v>-0.003310631127292087</v>
+      </c>
+      <c r="H87">
+        <v>-0.05149271140480826</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.07170063550145081</v>
+        <v>0.0588474435229556</v>
       </c>
       <c r="C88">
-        <v>-0.04705766204132229</v>
+        <v>-0.06130611107974505</v>
       </c>
       <c r="D88">
-        <v>0.0360820991950002</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01327006118891146</v>
+      </c>
+      <c r="E88">
+        <v>0.005589240326479017</v>
+      </c>
+      <c r="F88">
+        <v>-0.02078826015950735</v>
+      </c>
+      <c r="G88">
+        <v>-0.02092615187506001</v>
+      </c>
+      <c r="H88">
+        <v>-0.05213168511078988</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2696544653967342</v>
+        <v>0.3247281787516409</v>
       </c>
       <c r="C89">
-        <v>0.3769217474575105</v>
+        <v>0.310364924051828</v>
       </c>
       <c r="D89">
-        <v>-0.01102049639698229</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.001674373657733616</v>
+      </c>
+      <c r="E89">
+        <v>0.06407963250223084</v>
+      </c>
+      <c r="F89">
+        <v>0.007972896205014958</v>
+      </c>
+      <c r="G89">
+        <v>-0.06646352321705341</v>
+      </c>
+      <c r="H89">
+        <v>-0.121675270755399</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2265151940875145</v>
+        <v>0.2663644691642987</v>
       </c>
       <c r="C90">
-        <v>0.2775959594311846</v>
+        <v>0.2211200580844136</v>
       </c>
       <c r="D90">
-        <v>0.0118307178974</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.02816442311414554</v>
+      </c>
+      <c r="E90">
+        <v>0.05310611758557984</v>
+      </c>
+      <c r="F90">
+        <v>-0.003443671591975353</v>
+      </c>
+      <c r="G90">
+        <v>0.05150484719817853</v>
+      </c>
+      <c r="H90">
+        <v>-0.03909863181270339</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1695605711567002</v>
+        <v>0.135950126556077</v>
       </c>
       <c r="C91">
-        <v>-0.1662345053890102</v>
+        <v>-0.1780333942128421</v>
       </c>
       <c r="D91">
-        <v>-0.1283443572270845</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1214399468076435</v>
+      </c>
+      <c r="E91">
+        <v>0.0924602140919803</v>
+      </c>
+      <c r="F91">
+        <v>-0.06479639337135164</v>
+      </c>
+      <c r="G91">
+        <v>-0.02519706746526767</v>
+      </c>
+      <c r="H91">
+        <v>0.05092690440472158</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1958384835650819</v>
+        <v>0.255198157008971</v>
       </c>
       <c r="C92">
-        <v>0.2690004295263863</v>
+        <v>0.2426774574000602</v>
       </c>
       <c r="D92">
-        <v>0.01225378346342592</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.02700134966317847</v>
+      </c>
+      <c r="E92">
+        <v>0.1100037128216078</v>
+      </c>
+      <c r="F92">
+        <v>-0.01402696309989839</v>
+      </c>
+      <c r="G92">
+        <v>-0.004307703102290249</v>
+      </c>
+      <c r="H92">
+        <v>-0.04092906018377963</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2453764286701985</v>
+        <v>0.281163252575154</v>
       </c>
       <c r="C93">
-        <v>0.2899476115917087</v>
+        <v>0.2313194063530364</v>
       </c>
       <c r="D93">
-        <v>0.01927023325748696</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.006194233292588002</v>
+      </c>
+      <c r="E93">
+        <v>-0.01311232084113539</v>
+      </c>
+      <c r="F93">
+        <v>-0.03176217144274487</v>
+      </c>
+      <c r="G93">
+        <v>-0.01208758702288982</v>
+      </c>
+      <c r="H93">
+        <v>0.0006655299652521005</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3335961034632964</v>
+        <v>0.2764531365023549</v>
       </c>
       <c r="C94">
-        <v>-0.2129651369482875</v>
+        <v>-0.2736644102816414</v>
       </c>
       <c r="D94">
-        <v>-0.3783454306161783</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4017996517625547</v>
+      </c>
+      <c r="E94">
+        <v>0.009281903354442535</v>
+      </c>
+      <c r="F94">
+        <v>0.05184651131188524</v>
+      </c>
+      <c r="G94">
+        <v>0.1801076947482884</v>
+      </c>
+      <c r="H94">
+        <v>-0.290282728794635</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.06922846989127093</v>
+        <v>0.06292532843053161</v>
       </c>
       <c r="C95">
-        <v>-0.08184375751048815</v>
+        <v>-0.08999067914512399</v>
       </c>
       <c r="D95">
-        <v>0.112783835800806</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09924420181111344</v>
+      </c>
+      <c r="E95">
+        <v>0.236499124169893</v>
+      </c>
+      <c r="F95">
+        <v>0.6964138150268651</v>
+      </c>
+      <c r="G95">
+        <v>-0.4834769592258287</v>
+      </c>
+      <c r="H95">
+        <v>-0.2848879520611043</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>9.748173710045809e-05</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>2.669333136302497e-07</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.0002002751994739755</v>
+      </c>
+      <c r="E97">
+        <v>0.000222377392222769</v>
+      </c>
+      <c r="F97">
+        <v>-0.0005386507717505892</v>
+      </c>
+      <c r="G97">
+        <v>0.0003045781462441623</v>
+      </c>
+      <c r="H97">
+        <v>0.0001319003712889617</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1751475858772421</v>
+        <v>0.162949896323466</v>
       </c>
       <c r="C98">
-        <v>-0.05625229853968051</v>
+        <v>-0.09421154596534898</v>
       </c>
       <c r="D98">
-        <v>0.1548256948011454</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.111197649487587</v>
+      </c>
+      <c r="E98">
+        <v>-0.3248377175138754</v>
+      </c>
+      <c r="F98">
+        <v>0.07751996690374072</v>
+      </c>
+      <c r="G98">
+        <v>-0.02790342053446975</v>
+      </c>
+      <c r="H98">
+        <v>0.1331487987691572</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.003575426530831411</v>
+        <v>0.005260804052960393</v>
       </c>
       <c r="C101">
-        <v>-0.02189564933205473</v>
+        <v>-0.0265866042185609</v>
       </c>
       <c r="D101">
-        <v>0.0881097180779495</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.09660735689589384</v>
+      </c>
+      <c r="E101">
+        <v>0.01368233276049124</v>
+      </c>
+      <c r="F101">
+        <v>-0.04437486825623888</v>
+      </c>
+      <c r="G101">
+        <v>-0.004885797222799125</v>
+      </c>
+      <c r="H101">
+        <v>-0.08628543170163658</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1242937212843192</v>
+        <v>0.09301483572957842</v>
       </c>
       <c r="C102">
-        <v>-0.1312786235624898</v>
+        <v>-0.1334339696476254</v>
       </c>
       <c r="D102">
-        <v>-0.08679346952724749</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.09406443908539194</v>
+      </c>
+      <c r="E102">
+        <v>0.01860064090671846</v>
+      </c>
+      <c r="F102">
+        <v>0.03148190871805627</v>
+      </c>
+      <c r="G102">
+        <v>0.03602069135001682</v>
+      </c>
+      <c r="H102">
+        <v>0.008461541642088389</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
